--- a/Documentation/Cas de test/Test_Jonathan.xlsx
+++ b/Documentation/Cas de test/Test_Jonathan.xlsx
@@ -5,23 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1425165\Desktop\projetapex\Remise Finale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1470001\Desktop\remiseapex\Documentation\Cas de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste des pages" sheetId="1" r:id="rId1"/>
-    <sheet name="Rapport Entraineurs (230)" sheetId="3" r:id="rId2"/>
-    <sheet name="Formulaire Entraineurs (240)" sheetId="5" r:id="rId3"/>
-    <sheet name="Formulaire P.Budget. (260)" sheetId="6" r:id="rId4"/>
-    <sheet name="Rapport Personnes (270)" sheetId="7" r:id="rId5"/>
-    <sheet name="Formulaire Personnes (280)" sheetId="8" r:id="rId6"/>
-    <sheet name="Rapport Catégorie (310)" sheetId="9" r:id="rId7"/>
-    <sheet name="Formulaire Catégories (320)" sheetId="10" r:id="rId8"/>
-    <sheet name="Rapport École (330)" sheetId="11" r:id="rId9"/>
-    <sheet name="Formulaire École (340)" sheetId="12" r:id="rId10"/>
+    <sheet name="Rapport Entraineurs (230)" sheetId="3" r:id="rId1"/>
+    <sheet name="Formulaire Entraineurs (240)" sheetId="5" r:id="rId2"/>
+    <sheet name="Formulaire P.Budget. (260)" sheetId="6" r:id="rId3"/>
+    <sheet name="Rapport Personnes (270)" sheetId="7" r:id="rId4"/>
+    <sheet name="Formulaire Personnes (280)" sheetId="8" r:id="rId5"/>
+    <sheet name="Rapport Catégorie (310)" sheetId="9" r:id="rId6"/>
+    <sheet name="Rapport École (330)" sheetId="11" r:id="rId7"/>
+    <sheet name="Formulaire École (340)" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
-  <si>
-    <t>\</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>Cas de test</t>
   </si>
@@ -281,9 +276,6 @@
     <t>T-Personnes-10</t>
   </si>
   <si>
-    <t>T-Personnes-11</t>
-  </si>
-  <si>
     <t>Générer un reçu d'impôt --&gt; Clic</t>
   </si>
   <si>
@@ -308,36 +300,12 @@
     <t>Redirection page 320 - Création d'une catégorie</t>
   </si>
   <si>
-    <t>T-Categories-01</t>
-  </si>
-  <si>
-    <t>T-Categories-02</t>
-  </si>
-  <si>
     <t>T-ECOLES-01</t>
   </si>
   <si>
     <t>T-ECOLES-02</t>
   </si>
   <si>
-    <t>Redirection page 340 - Création d'une catégorie</t>
-  </si>
-  <si>
-    <t>Redirection page 340 - Modification d'une catégorie</t>
-  </si>
-  <si>
-    <t>T-Ecoles-1</t>
-  </si>
-  <si>
-    <t>T-Ecoles-2</t>
-  </si>
-  <si>
-    <t>T-Ecoles-3</t>
-  </si>
-  <si>
-    <t>T-Ecoles-4</t>
-  </si>
-  <si>
     <t>T-Ecoles-5</t>
   </si>
   <si>
@@ -356,12 +324,6 @@
     <t>T-Ecoles-10</t>
   </si>
   <si>
-    <t>T-Ecoles-11</t>
-  </si>
-  <si>
-    <t>École supprimée</t>
-  </si>
-  <si>
     <t>T-Ecoles-12</t>
   </si>
   <si>
@@ -372,6 +334,15 @@
   </si>
   <si>
     <t>Tests - Formulaire Écoles</t>
+  </si>
+  <si>
+    <t>Tests - Rapport École</t>
+  </si>
+  <si>
+    <t>Redirection page 340 - Création d'une école</t>
+  </si>
+  <si>
+    <t>Redirection page 340 - Modification d'une école</t>
   </si>
 </sst>
 </file>
@@ -388,13 +359,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,25 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,36 +497,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -582,12 +522,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="64">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -665,6 +611,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -672,15 +627,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -784,215 +730,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1738,85 +1488,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau312" displayName="Tableau312" ref="A4:D6" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau312" displayName="Tableau312" ref="A4:D6" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="A4:D6"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="68"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="67"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="66"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="65"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="59"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="58"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="57"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3124" displayName="Tableau3124" ref="A4:D18" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3124" displayName="Tableau3124" ref="A4:D18" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A4:D18"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="60"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="59"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="58"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="57"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="51"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="50"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="49"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau31210" displayName="Tableau31210" ref="A4:D6" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau31210" displayName="Tableau31210" ref="A4:D6" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A4:D6"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="52"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="51"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="50"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="49"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="43"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="42"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="41"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau31211" displayName="Tableau31211" ref="A4:D7" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau31211" displayName="Tableau31211" ref="A4:D7" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A4:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="44"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="43"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="42"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="41"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="35"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="34"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="33"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau3121112" displayName="Tableau3121112" ref="A4:D15" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
-  <autoFilter ref="A4:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tableau3121112" displayName="Tableau3121112" ref="A4:D14" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A4:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="36"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="35"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="34"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="33"/>
+    <tableColumn id="1" name="Numéro " dataDxfId="27"/>
+    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="26"/>
+    <tableColumn id="3" name="Résultat attendu" dataDxfId="25"/>
+    <tableColumn id="4" name="Résultat obtenu" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau3121114" displayName="Tableau3121114" ref="A4:D6" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A4:D6"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numéro " dataDxfId="28"/>
-    <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="27"/>
-    <tableColumn id="3" name="Résultat attendu" dataDxfId="26"/>
-    <tableColumn id="4" name="Résultat obtenu" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tableau3121015" displayName="Tableau3121015" ref="A4:D6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tableau3121114" displayName="Tableau3121114" ref="A4:D6" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A4:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="19"/>
@@ -1828,8 +1565,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau31211143" displayName="Tableau31211143" ref="A3:D5" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau31211143" displayName="Tableau31211143" ref="A3:D5" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A3:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="11"/>
@@ -1841,9 +1578,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau31211125" displayName="Tableau31211125" ref="A3:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A3:D15"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau31211125" displayName="Tableau31211125" ref="A3:D10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A3:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Numéro " dataDxfId="3"/>
     <tableColumn id="2" name="Champ Traité --&gt; Valeur" dataDxfId="2"/>
@@ -2117,484 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>205</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>210</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>215</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>220</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>230</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>240</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>260</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>270</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>280</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>290</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>300</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>310</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>320</v>
-      </c>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>330</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>340</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>420</v>
-      </c>
-      <c r="B27" s="20"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>501</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>510</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>520</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>521</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1010</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,74 +1869,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="4" width="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2690,252 +2216,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="4" width="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>56</v>
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2952,100 +2309,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3062,83 +2325,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>86</v>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3154,12 +2417,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,195 +2434,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>67</v>
+      <c r="D14" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3369,13 +2618,14 @@
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3392,69 +2642,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>89</v>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3470,106 +2720,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,61 +2736,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>96</v>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
